--- a/biology/Écologie/Écophagie/Écophagie.xlsx
+++ b/biology/Écologie/Écophagie/Écophagie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cophagie</t>
+          <t>Écophagie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écophagie est un terme créé par Robert Freitas qui littéralement signifie « consommation d'un écosystème ». 
 Freitas a utilisé pour la première fois ce mot pour décrire un scénario impliquant des nanotechnologies moléculaires défectueuses. Dans cette situation (appelée scénario grey goo — gelée grise), des nanorobots auto-répliquants et devenus hors de contrôle consomment l'ensemble des écosystèmes, résultant en une écophagie mondiale. Ce scénario est déjà présent dans de nombreuses fictions écrites dans les années 1950–1960 (par exemple Philip K. Dick, Second Variety, qui a donné le film Planète hurlante). Il a été repris en 2018 par José Rodrigues dos Santos dans son roman, Signe de vie.
